--- a/工作手册.xlsx
+++ b/工作手册.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goddi\Desktop\朱锦涛资产\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2351EF4-01ED-43DD-B281-F716AEB22707}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592893D5-3EFC-4FB7-A1AB-7E69CA7B53FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,66 +44,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>买入时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总市值&lt;6千亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总市值&gt;1万亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A股</t>
+  </si>
+  <si>
+    <t>A股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高股息，实业巨头，基本面较好，但需要持续跟踪（房地产相关）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国有垄断，长年破净，高股息，低市盈率，在市场不好的时候可以防御性的持有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高股息，低市盈率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB≥1.1(±0.1) OR PE≥10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国海油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不明确 近几年业务不佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不明确 房地产相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国有垄断，高股息，低市盈率，成长性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">暂不明确 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>格力电器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">市值较低5000多亿，对比中国移动1.24万亿的市值，营业收入和净利润并等比例的不低于移动 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选入理由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买入时机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总市值&lt;6千亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖出时机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总市值&gt;1万亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A股</t>
-  </si>
-  <si>
-    <t>A股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高股息，实业巨头，基本面较好，但需要持续跟踪（房地产相关）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB&lt;1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB&gt;=1.1(±0.1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂不明确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国有垄断，长年破净，高股息，低市盈率，在市场不好的时候可以防御性的持有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业</t>
+    <t>采矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中煤能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国有垄断，规模最大，市值最高，但是没有成长性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市值较低5000多亿，对比中国移动一万亿左右的市值，营业收入和净利润并等比例的不低于
+中国移动 ，又是央企在科技领域的带头行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB&lt;1.0 AND PE&lt;10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,23 +184,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>家电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中煤能源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高股息，低市盈率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采矿</t>
+    <t>理由（一眼就能看懂的描述，长度不要超过单元格）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,16 +207,77 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -167,12 +285,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -453,126 +634,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.21875" customWidth="1"/>
-    <col min="2" max="3" width="9.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="83.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="83.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="13">
+        <v>44986</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="13">
+        <v>45170</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/工作手册.xlsx
+++ b/工作手册.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goddi\Desktop\朱锦涛资产\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhufeng\Desktop\股票分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592893D5-3EFC-4FB7-A1AB-7E69CA7B53FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="股票池" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,10 +147,6 @@
   </si>
   <si>
     <t>家电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格力电器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -185,13 +180,33 @@
   </si>
   <si>
     <t>理由（一眼就能看懂的描述，长度不要超过单元格）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国神华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观望</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,6 +375,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF5F00E"/>
+      <color rgb="FFD8E717"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -633,11 +654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -674,7 +695,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>4</v>
@@ -706,7 +727,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>17</v>
@@ -745,17 +766,17 @@
         <v>29</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>28</v>
@@ -782,7 +803,7 @@
         <v>45170</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>5</v>
@@ -802,7 +823,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>20</v>
@@ -824,10 +845,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>20</v>
@@ -840,6 +861,25 @@
         <v>25</v>
       </c>
       <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G9" s="1" t="s">
@@ -854,7 +894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07DB18E-EB72-42C6-A03C-2397E0350D95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
